--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE1953C-02DA-47D0-AFD1-C5C3B7FA45E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC1039-3E5A-4415-99B7-B874A1A984B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-11" sheetId="1" r:id="rId1"/>
@@ -19761,7 +19761,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A474" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
@@ -34960,8 +34960,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E476"/>
   <sheetViews>
-    <sheetView topLeftCell="A458" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A477" sqref="A477"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41929,7 +41929,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B425" s="2">
         <v>42</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC1039-3E5A-4415-99B7-B874A1A984B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD471CD-5C90-4BC8-A075-D15CDFA94841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34961,7 +34961,7 @@
   <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426"/>
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41935,7 +41935,7 @@
         <v>42</v>
       </c>
       <c r="C425" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>1209</v>
@@ -41952,7 +41952,7 @@
         <v>42</v>
       </c>
       <c r="C426" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>1207</v>
@@ -41966,7 +41966,7 @@
         <v>42</v>
       </c>
       <c r="C427" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>1208</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD471CD-5C90-4BC8-A075-D15CDFA94841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2783D37-237E-441D-917A-2CCB4D56091F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-11" sheetId="1" r:id="rId1"/>
@@ -34960,7 +34960,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A416" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
@@ -42774,8 +42774,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="83.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45479,7 +45479,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B166" s="2">
         <v>16</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2783D37-237E-441D-917A-2CCB4D56091F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518427C-B765-44D9-9FE5-6BAAC48A7257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-11" sheetId="1" r:id="rId1"/>
@@ -42774,7 +42774,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A153" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
@@ -50256,8 +50256,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53788,7 +53788,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B214" s="2">
         <v>17</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518427C-B765-44D9-9FE5-6BAAC48A7257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E622FDB-620F-44CD-895D-A42911A2E9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 5-11" sheetId="1" r:id="rId1"/>
@@ -50256,8 +50256,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView topLeftCell="A139" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62464,8 +62464,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64481,7 +64481,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B124" s="2">
         <v>12</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E622FDB-620F-44CD-895D-A42911A2E9C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A3A1D-4BE2-4445-B9AE-6A510C91BE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62465,7 +62465,7 @@
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64487,7 +64487,7 @@
         <v>12</v>
       </c>
       <c r="C124" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>2991</v>
@@ -64504,7 +64504,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>2983</v>
@@ -64518,7 +64518,7 @@
         <v>12</v>
       </c>
       <c r="C126" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>2986</v>

--- a/content/Book Five 11-20.xlsx
+++ b/content/Book Five 11-20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A3A1D-4BE2-4445-B9AE-6A510C91BE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D68B5C-B18B-4CAB-BE90-B4FD225E7D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62464,8 +62464,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66557,7 +66557,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B250" s="2">
         <v>21</v>
